--- a/metrics visualization/model_tests.xlsx
+++ b/metrics visualization/model_tests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>Divider</t>
   </si>
@@ -1233,7 +1233,7 @@
     <col min="16" max="16" style="79" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="17" max="17" style="80" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="2" width="83.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="2" width="33.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="2" width="596.4335714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -3602,7 +3602,9 @@
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S13, 2, LEN(S13) - 2), ",", TRUE)))</f>
       </c>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>

--- a/metrics visualization/model_tests.xlsx
+++ b/metrics visualization/model_tests.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>Divider</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>MD18</t>
+  </si>
+  <si>
+    <t>[5.956544871, 4.919525402, 4.905601148, 4.846706499, 4.764659772, 4.634121691, 4.592479337, 4.467514221, 4.524223422, 4.609688526, 4.463065133, 4.479755148, 4.391313116, 4.318530941, 4.388769596, 4.117184019, 3.852035739, 3.560123098, 3.593171037, 3.604433737, 3.652438596, 3.743885933, 3.763549359, 3.648141104, 3.660352774, 3.407662545, 3.363630953, 3.120972268, 3.198839835, 3.107579164, 2.97344394, 2.779266184, 2.78895966, 2.671419793, 2.598793373, 2.306309293, 2.253363492, 2.198201781, 2.144975379, 2.222474611, 2.19520273, 2.039005891, 1.913818672, 1.892871151, 1.616961339, 1.583668025, 1.551923173, 1.336076198, 1.087646717, 0.913818057, 0.759302366, 0.759981074, 0.762821679, 0.759324598]</t>
   </si>
   <si>
     <t>MD5</t>
@@ -340,7 +343,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -384,19 +387,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFff0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFff0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -663,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="70">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -776,19 +773,10 @@
     <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -797,55 +785,43 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -857,47 +833,35 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1220,18 +1184,18 @@
     <col min="3" max="3" style="2" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="19.14785714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="79" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="80" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="79" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="79" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="68" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="69" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="68" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="68" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="2" width="16.290714285714284" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="2" width="18.862142857142857" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="80" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="79" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="79" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="79" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="80" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="69" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="68" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="68" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="68" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="69" width="11.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="2" width="83.14785714285713" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="2" width="596.4335714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -1841,7 +1805,7 @@
       <c r="EK3" s="1"/>
       <c r="EL3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="38" t="s">
         <v>52</v>
       </c>
@@ -2047,46 +2011,46 @@
       <c r="E5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="40">
         <v>450</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="41">
         <v>0.2</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="40">
         <v>600</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="40">
         <v>1</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="41">
         <v>0.001</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="40">
         <v>200</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="40">
         <v>10</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="40">
         <v>23</v>
       </c>
       <c r="Q5" s="41">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S5, 2, LEN(S5) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="45" t="s">
+      <c r="S5" s="38" t="s">
         <v>58</v>
       </c>
       <c r="T5" s="1"/>
@@ -2222,76 +2186,76 @@
       <c r="EL5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="44">
         <f>_xlfn.CONCAT(A6,"_",W6,"-",X6,"_",F6,"-",G6,"-",H6,"-",I6,"_",Y6,"-",Z6,"_",M6,".pt")</f>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <v>450</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="46">
         <v>0.2</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="45">
         <v>600</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="45">
         <v>1</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="46" t="s">
+      <c r="K6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="46">
         <v>0.001</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="45">
         <v>200</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="45">
         <v>10</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="45">
         <v>18</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="46">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S6, 2, LEN(S6) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R6" s="46" t="s">
+      <c r="R6" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="46" t="s">
+      <c r="S6" s="43" t="s">
         <v>61</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="50">
+      <c r="W6" s="44">
         <f>IFERROR( VLOOKUP(D6,Extra!$A$2:$B$5,2,FALSE), "")</f>
       </c>
-      <c r="X6" s="50">
+      <c r="X6" s="44">
         <f>IFERROR( VLOOKUP(E6,Extra!$D$2:$E$3,2,FALSE), "")</f>
       </c>
-      <c r="Y6" s="50">
+      <c r="Y6" s="44">
         <f>IFERROR( VLOOKUP(K6,Extra!$I$2:$J$11,2,FALSE), "")</f>
       </c>
-      <c r="Z6" s="50">
+      <c r="Z6" s="44">
         <f>IFERROR( VLOOKUP(L6,Extra!$L$2:$M$11,2,FALSE), "")</f>
       </c>
       <c r="AA6" s="1"/>
@@ -2424,49 +2388,49 @@
       <c r="D7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="40">
         <v>450</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="41">
         <v>0.2</v>
       </c>
-      <c r="H7" s="43">
+      <c r="H7" s="40">
         <v>600</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="45" t="s">
+      <c r="K7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="L7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="41">
         <v>0.001</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="40">
         <v>200</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="40">
         <v>10</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="40">
         <v>37</v>
       </c>
       <c r="Q7" s="41">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S7, 2, LEN(S7) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="S7" s="51" t="s">
+      <c r="S7" s="47" t="s">
         <v>64</v>
       </c>
       <c r="T7" s="1"/>
@@ -2481,125 +2445,125 @@
       <c r="Y7" s="42">
         <f>IFERROR( VLOOKUP(K7,Extra!$I$2:$J$11,2,FALSE), "")</f>
       </c>
-      <c r="Z7" s="52">
+      <c r="Z7" s="42">
         <f>IFERROR( VLOOKUP(L7,Extra!$L$2:$M$11,2,FALSE), "")</f>
       </c>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
-      <c r="BK7" s="53"/>
-      <c r="BL7" s="53"/>
-      <c r="BM7" s="53"/>
-      <c r="BN7" s="53"/>
-      <c r="BO7" s="53"/>
-      <c r="BP7" s="53"/>
-      <c r="BQ7" s="53"/>
-      <c r="BR7" s="53"/>
-      <c r="BS7" s="53"/>
-      <c r="BT7" s="53"/>
-      <c r="BU7" s="53"/>
-      <c r="BV7" s="53"/>
-      <c r="BW7" s="53"/>
-      <c r="BX7" s="53"/>
-      <c r="BY7" s="53"/>
-      <c r="BZ7" s="53"/>
-      <c r="CA7" s="53"/>
-      <c r="CB7" s="53"/>
-      <c r="CC7" s="53"/>
-      <c r="CD7" s="53"/>
-      <c r="CE7" s="53"/>
-      <c r="CF7" s="53"/>
-      <c r="CG7" s="53"/>
-      <c r="CH7" s="53"/>
-      <c r="CI7" s="53"/>
-      <c r="CJ7" s="53"/>
-      <c r="CK7" s="53"/>
-      <c r="CL7" s="53"/>
-      <c r="CM7" s="53"/>
-      <c r="CN7" s="53"/>
-      <c r="CO7" s="53"/>
-      <c r="CP7" s="53"/>
-      <c r="CQ7" s="53"/>
-      <c r="CR7" s="53"/>
-      <c r="CS7" s="53"/>
-      <c r="CT7" s="53"/>
-      <c r="CU7" s="53"/>
-      <c r="CV7" s="53"/>
-      <c r="CW7" s="53"/>
-      <c r="CX7" s="53"/>
-      <c r="CY7" s="53"/>
-      <c r="CZ7" s="53"/>
-      <c r="DA7" s="53"/>
-      <c r="DB7" s="53"/>
-      <c r="DC7" s="53"/>
-      <c r="DD7" s="53"/>
-      <c r="DE7" s="53"/>
-      <c r="DF7" s="53"/>
-      <c r="DG7" s="53"/>
-      <c r="DH7" s="53"/>
-      <c r="DI7" s="53"/>
-      <c r="DJ7" s="53"/>
-      <c r="DK7" s="53"/>
-      <c r="DL7" s="53"/>
-      <c r="DM7" s="53"/>
-      <c r="DN7" s="53"/>
-      <c r="DO7" s="53"/>
-      <c r="DP7" s="53"/>
-      <c r="DQ7" s="53"/>
-      <c r="DR7" s="53"/>
-      <c r="DS7" s="53"/>
-      <c r="DT7" s="53"/>
-      <c r="DU7" s="53"/>
-      <c r="DV7" s="53"/>
-      <c r="DW7" s="53"/>
-      <c r="DX7" s="53"/>
-      <c r="DY7" s="53"/>
-      <c r="DZ7" s="53"/>
-      <c r="EA7" s="53"/>
-      <c r="EB7" s="53"/>
-      <c r="EC7" s="53"/>
-      <c r="ED7" s="53"/>
-      <c r="EE7" s="53"/>
-      <c r="EF7" s="53"/>
-      <c r="EG7" s="53"/>
-      <c r="EH7" s="53"/>
-      <c r="EI7" s="53"/>
-      <c r="EJ7" s="53"/>
-      <c r="EK7" s="53"/>
-      <c r="EL7" s="53"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="48"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="48"/>
+      <c r="AJ7" s="48"/>
+      <c r="AK7" s="48"/>
+      <c r="AL7" s="48"/>
+      <c r="AM7" s="48"/>
+      <c r="AN7" s="48"/>
+      <c r="AO7" s="48"/>
+      <c r="AP7" s="48"/>
+      <c r="AQ7" s="48"/>
+      <c r="AR7" s="48"/>
+      <c r="AS7" s="48"/>
+      <c r="AT7" s="48"/>
+      <c r="AU7" s="48"/>
+      <c r="AV7" s="48"/>
+      <c r="AW7" s="48"/>
+      <c r="AX7" s="48"/>
+      <c r="AY7" s="48"/>
+      <c r="AZ7" s="48"/>
+      <c r="BA7" s="48"/>
+      <c r="BB7" s="48"/>
+      <c r="BC7" s="48"/>
+      <c r="BD7" s="48"/>
+      <c r="BE7" s="48"/>
+      <c r="BF7" s="48"/>
+      <c r="BG7" s="48"/>
+      <c r="BH7" s="48"/>
+      <c r="BI7" s="48"/>
+      <c r="BJ7" s="48"/>
+      <c r="BK7" s="48"/>
+      <c r="BL7" s="48"/>
+      <c r="BM7" s="48"/>
+      <c r="BN7" s="48"/>
+      <c r="BO7" s="48"/>
+      <c r="BP7" s="48"/>
+      <c r="BQ7" s="48"/>
+      <c r="BR7" s="48"/>
+      <c r="BS7" s="48"/>
+      <c r="BT7" s="48"/>
+      <c r="BU7" s="48"/>
+      <c r="BV7" s="48"/>
+      <c r="BW7" s="48"/>
+      <c r="BX7" s="48"/>
+      <c r="BY7" s="48"/>
+      <c r="BZ7" s="48"/>
+      <c r="CA7" s="48"/>
+      <c r="CB7" s="48"/>
+      <c r="CC7" s="48"/>
+      <c r="CD7" s="48"/>
+      <c r="CE7" s="48"/>
+      <c r="CF7" s="48"/>
+      <c r="CG7" s="48"/>
+      <c r="CH7" s="48"/>
+      <c r="CI7" s="48"/>
+      <c r="CJ7" s="48"/>
+      <c r="CK7" s="48"/>
+      <c r="CL7" s="48"/>
+      <c r="CM7" s="48"/>
+      <c r="CN7" s="48"/>
+      <c r="CO7" s="48"/>
+      <c r="CP7" s="48"/>
+      <c r="CQ7" s="48"/>
+      <c r="CR7" s="48"/>
+      <c r="CS7" s="48"/>
+      <c r="CT7" s="48"/>
+      <c r="CU7" s="48"/>
+      <c r="CV7" s="48"/>
+      <c r="CW7" s="48"/>
+      <c r="CX7" s="48"/>
+      <c r="CY7" s="48"/>
+      <c r="CZ7" s="48"/>
+      <c r="DA7" s="48"/>
+      <c r="DB7" s="48"/>
+      <c r="DC7" s="48"/>
+      <c r="DD7" s="48"/>
+      <c r="DE7" s="48"/>
+      <c r="DF7" s="48"/>
+      <c r="DG7" s="48"/>
+      <c r="DH7" s="48"/>
+      <c r="DI7" s="48"/>
+      <c r="DJ7" s="48"/>
+      <c r="DK7" s="48"/>
+      <c r="DL7" s="48"/>
+      <c r="DM7" s="48"/>
+      <c r="DN7" s="48"/>
+      <c r="DO7" s="48"/>
+      <c r="DP7" s="48"/>
+      <c r="DQ7" s="48"/>
+      <c r="DR7" s="48"/>
+      <c r="DS7" s="48"/>
+      <c r="DT7" s="48"/>
+      <c r="DU7" s="48"/>
+      <c r="DV7" s="48"/>
+      <c r="DW7" s="48"/>
+      <c r="DX7" s="48"/>
+      <c r="DY7" s="48"/>
+      <c r="DZ7" s="48"/>
+      <c r="EA7" s="48"/>
+      <c r="EB7" s="48"/>
+      <c r="EC7" s="48"/>
+      <c r="ED7" s="48"/>
+      <c r="EE7" s="48"/>
+      <c r="EF7" s="48"/>
+      <c r="EG7" s="48"/>
+      <c r="EH7" s="48"/>
+      <c r="EI7" s="48"/>
+      <c r="EJ7" s="48"/>
+      <c r="EK7" s="48"/>
+      <c r="EL7" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="38" t="s">
@@ -3042,16 +3006,16 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="54">
+      <c r="W10" s="39">
         <f>IFERROR( VLOOKUP(D10,Extra!$A$2:$B$5,2,FALSE), "")</f>
       </c>
-      <c r="X10" s="54">
+      <c r="X10" s="39">
         <f>IFERROR( VLOOKUP(E10,Extra!$D$2:$E$3,2,FALSE), "")</f>
       </c>
-      <c r="Y10" s="54">
+      <c r="Y10" s="39">
         <f>IFERROR( VLOOKUP(K10,Extra!$I$2:$J$11,2,FALSE), "")</f>
       </c>
-      <c r="Z10" s="54">
+      <c r="Z10" s="39">
         <f>IFERROR( VLOOKUP(L10,Extra!$L$2:$M$11,2,FALSE), "")</f>
       </c>
       <c r="AA10" s="1"/>
@@ -3232,16 +3196,16 @@
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
       <c r="V11" s="38"/>
-      <c r="W11" s="54">
+      <c r="W11" s="39">
         <f>IFERROR( VLOOKUP(D11,Extra!$A$2:$B$5,2,FALSE), "")</f>
       </c>
-      <c r="X11" s="54">
+      <c r="X11" s="39">
         <f>IFERROR( VLOOKUP(E11,Extra!$D$2:$E$3,2,FALSE), "")</f>
       </c>
-      <c r="Y11" s="54">
+      <c r="Y11" s="39">
         <f>IFERROR( VLOOKUP(K11,Extra!$I$2:$J$11,2,FALSE), "")</f>
       </c>
-      <c r="Z11" s="54">
+      <c r="Z11" s="39">
         <f>IFERROR( VLOOKUP(L11,Extra!$L$2:$M$11,2,FALSE), "")</f>
       </c>
       <c r="AA11" s="38"/>
@@ -3422,16 +3386,16 @@
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
-      <c r="W12" s="54">
+      <c r="W12" s="39">
         <f>IFERROR( VLOOKUP(D12,Extra!$A$2:$B$5,2,FALSE), "")</f>
       </c>
-      <c r="X12" s="54">
+      <c r="X12" s="39">
         <f>IFERROR( VLOOKUP(E12,Extra!$D$2:$E$3,2,FALSE), "")</f>
       </c>
-      <c r="Y12" s="54">
+      <c r="Y12" s="39">
         <f>IFERROR( VLOOKUP(K12,Extra!$I$2:$J$11,2,FALSE), "")</f>
       </c>
-      <c r="Z12" s="54">
+      <c r="Z12" s="39">
         <f>IFERROR( VLOOKUP(L12,Extra!$L$2:$M$11,2,FALSE), "")</f>
       </c>
       <c r="AA12" s="38"/>
@@ -3597,27 +3561,27 @@
       <c r="O13" s="40">
         <v>25</v>
       </c>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="56">
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S13, 2, LEN(S13) - 2), ",", TRUE)))</f>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="38" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="54">
+      <c r="W13" s="39">
         <f>IFERROR( VLOOKUP(D13,Extra!$A$2:$B$5,2,FALSE), "")</f>
       </c>
-      <c r="X13" s="54">
+      <c r="X13" s="39">
         <f>IFERROR( VLOOKUP(E13,Extra!$D$2:$E$3,2,FALSE), "")</f>
       </c>
-      <c r="Y13" s="54">
+      <c r="Y13" s="39">
         <f>IFERROR( VLOOKUP(K13,Extra!$I$2:$J$11,2,FALSE), "")</f>
       </c>
-      <c r="Z13" s="54">
+      <c r="Z13" s="39">
         <f>IFERROR( VLOOKUP(L13,Extra!$L$2:$M$11,2,FALSE), "")</f>
       </c>
       <c r="AA13" s="1"/>
@@ -3739,9 +3703,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="57">
+        <v>83</v>
+      </c>
+      <c r="B14" s="51">
         <f>_xlfn.CONCAT(A18,"_",W18,"-",X18,"_",F18,"-",G18,"-",H18,"-",I18,"_",Y18,"-",Z18,"_",M18,".pt")</f>
       </c>
       <c r="C14" s="1" t="s">
@@ -3753,16 +3717,16 @@
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="52">
         <v>450</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="53">
         <v>0.2</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="52">
         <v>600</v>
       </c>
-      <c r="I14" s="58">
+      <c r="I14" s="52">
         <v>2</v>
       </c>
       <c r="J14" s="1"/>
@@ -3772,23 +3736,23 @@
       <c r="L14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="53">
         <v>0.001</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="52">
         <v>200</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O14" s="52">
         <v>10</v>
       </c>
-      <c r="P14" s="58">
+      <c r="P14" s="52">
         <v>54</v>
       </c>
-      <c r="Q14" s="56">
+      <c r="Q14" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S18, 2, LEN(S18) - 2), ",", TRUE)))</f>
       </c>
       <c r="R14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
@@ -3803,180 +3767,180 @@
       <c r="Y14" s="42">
         <f>iferror(vlookup(K14, Extra!$I$2:$J$11, 2, false()), "")</f>
       </c>
-      <c r="Z14" s="52">
+      <c r="Z14" s="42">
         <f>iferror(vlookup(L14, Extra!$L$2:$M$11, 2, false()), "")</f>
       </c>
-      <c r="AA14" s="53"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="53"/>
-      <c r="AD14" s="53"/>
-      <c r="AE14" s="53"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="53"/>
-      <c r="AK14" s="53"/>
-      <c r="AL14" s="53"/>
-      <c r="AM14" s="53"/>
-      <c r="AN14" s="53"/>
-      <c r="AO14" s="53"/>
-      <c r="AP14" s="53"/>
-      <c r="AQ14" s="53"/>
-      <c r="AR14" s="53"/>
-      <c r="AS14" s="53"/>
-      <c r="AT14" s="53"/>
-      <c r="AU14" s="53"/>
-      <c r="AV14" s="53"/>
-      <c r="AW14" s="53"/>
-      <c r="AX14" s="53"/>
-      <c r="AY14" s="53"/>
-      <c r="AZ14" s="53"/>
-      <c r="BA14" s="53"/>
-      <c r="BB14" s="53"/>
-      <c r="BC14" s="53"/>
-      <c r="BD14" s="53"/>
-      <c r="BE14" s="53"/>
-      <c r="BF14" s="53"/>
-      <c r="BG14" s="53"/>
-      <c r="BH14" s="53"/>
-      <c r="BI14" s="53"/>
-      <c r="BJ14" s="53"/>
-      <c r="BK14" s="53"/>
-      <c r="BL14" s="53"/>
-      <c r="BM14" s="53"/>
-      <c r="BN14" s="53"/>
-      <c r="BO14" s="53"/>
-      <c r="BP14" s="53"/>
-      <c r="BQ14" s="53"/>
-      <c r="BR14" s="53"/>
-      <c r="BS14" s="53"/>
-      <c r="BT14" s="53"/>
-      <c r="BU14" s="53"/>
-      <c r="BV14" s="53"/>
-      <c r="BW14" s="53"/>
-      <c r="BX14" s="53"/>
-      <c r="BY14" s="53"/>
-      <c r="BZ14" s="53"/>
-      <c r="CA14" s="53"/>
-      <c r="CB14" s="53"/>
-      <c r="CC14" s="53"/>
-      <c r="CD14" s="53"/>
-      <c r="CE14" s="53"/>
-      <c r="CF14" s="53"/>
-      <c r="CG14" s="53"/>
-      <c r="CH14" s="53"/>
-      <c r="CI14" s="53"/>
-      <c r="CJ14" s="53"/>
-      <c r="CK14" s="53"/>
-      <c r="CL14" s="53"/>
-      <c r="CM14" s="53"/>
-      <c r="CN14" s="53"/>
-      <c r="CO14" s="53"/>
-      <c r="CP14" s="53"/>
-      <c r="CQ14" s="53"/>
-      <c r="CR14" s="53"/>
-      <c r="CS14" s="53"/>
-      <c r="CT14" s="53"/>
-      <c r="CU14" s="53"/>
-      <c r="CV14" s="53"/>
-      <c r="CW14" s="53"/>
-      <c r="CX14" s="53"/>
-      <c r="CY14" s="53"/>
-      <c r="CZ14" s="53"/>
-      <c r="DA14" s="53"/>
-      <c r="DB14" s="53"/>
-      <c r="DC14" s="53"/>
-      <c r="DD14" s="53"/>
-      <c r="DE14" s="53"/>
-      <c r="DF14" s="53"/>
-      <c r="DG14" s="53"/>
-      <c r="DH14" s="53"/>
-      <c r="DI14" s="53"/>
-      <c r="DJ14" s="53"/>
-      <c r="DK14" s="53"/>
-      <c r="DL14" s="53"/>
-      <c r="DM14" s="53"/>
-      <c r="DN14" s="53"/>
-      <c r="DO14" s="53"/>
-      <c r="DP14" s="53"/>
-      <c r="DQ14" s="53"/>
-      <c r="DR14" s="53"/>
-      <c r="DS14" s="53"/>
-      <c r="DT14" s="53"/>
-      <c r="DU14" s="53"/>
-      <c r="DV14" s="53"/>
-      <c r="DW14" s="53"/>
-      <c r="DX14" s="53"/>
-      <c r="DY14" s="53"/>
-      <c r="DZ14" s="53"/>
-      <c r="EA14" s="53"/>
-      <c r="EB14" s="53"/>
-      <c r="EC14" s="53"/>
-      <c r="ED14" s="53"/>
-      <c r="EE14" s="53"/>
-      <c r="EF14" s="53"/>
-      <c r="EG14" s="53"/>
-      <c r="EH14" s="53"/>
-      <c r="EI14" s="53"/>
-      <c r="EJ14" s="53"/>
-      <c r="EK14" s="53"/>
-      <c r="EL14" s="53"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="48"/>
+      <c r="AK14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="48"/>
+      <c r="AN14" s="48"/>
+      <c r="AO14" s="48"/>
+      <c r="AP14" s="48"/>
+      <c r="AQ14" s="48"/>
+      <c r="AR14" s="48"/>
+      <c r="AS14" s="48"/>
+      <c r="AT14" s="48"/>
+      <c r="AU14" s="48"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
+      <c r="BB14" s="48"/>
+      <c r="BC14" s="48"/>
+      <c r="BD14" s="48"/>
+      <c r="BE14" s="48"/>
+      <c r="BF14" s="48"/>
+      <c r="BG14" s="48"/>
+      <c r="BH14" s="48"/>
+      <c r="BI14" s="48"/>
+      <c r="BJ14" s="48"/>
+      <c r="BK14" s="48"/>
+      <c r="BL14" s="48"/>
+      <c r="BM14" s="48"/>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="48"/>
+      <c r="BQ14" s="48"/>
+      <c r="BR14" s="48"/>
+      <c r="BS14" s="48"/>
+      <c r="BT14" s="48"/>
+      <c r="BU14" s="48"/>
+      <c r="BV14" s="48"/>
+      <c r="BW14" s="48"/>
+      <c r="BX14" s="48"/>
+      <c r="BY14" s="48"/>
+      <c r="BZ14" s="48"/>
+      <c r="CA14" s="48"/>
+      <c r="CB14" s="48"/>
+      <c r="CC14" s="48"/>
+      <c r="CD14" s="48"/>
+      <c r="CE14" s="48"/>
+      <c r="CF14" s="48"/>
+      <c r="CG14" s="48"/>
+      <c r="CH14" s="48"/>
+      <c r="CI14" s="48"/>
+      <c r="CJ14" s="48"/>
+      <c r="CK14" s="48"/>
+      <c r="CL14" s="48"/>
+      <c r="CM14" s="48"/>
+      <c r="CN14" s="48"/>
+      <c r="CO14" s="48"/>
+      <c r="CP14" s="48"/>
+      <c r="CQ14" s="48"/>
+      <c r="CR14" s="48"/>
+      <c r="CS14" s="48"/>
+      <c r="CT14" s="48"/>
+      <c r="CU14" s="48"/>
+      <c r="CV14" s="48"/>
+      <c r="CW14" s="48"/>
+      <c r="CX14" s="48"/>
+      <c r="CY14" s="48"/>
+      <c r="CZ14" s="48"/>
+      <c r="DA14" s="48"/>
+      <c r="DB14" s="48"/>
+      <c r="DC14" s="48"/>
+      <c r="DD14" s="48"/>
+      <c r="DE14" s="48"/>
+      <c r="DF14" s="48"/>
+      <c r="DG14" s="48"/>
+      <c r="DH14" s="48"/>
+      <c r="DI14" s="48"/>
+      <c r="DJ14" s="48"/>
+      <c r="DK14" s="48"/>
+      <c r="DL14" s="48"/>
+      <c r="DM14" s="48"/>
+      <c r="DN14" s="48"/>
+      <c r="DO14" s="48"/>
+      <c r="DP14" s="48"/>
+      <c r="DQ14" s="48"/>
+      <c r="DR14" s="48"/>
+      <c r="DS14" s="48"/>
+      <c r="DT14" s="48"/>
+      <c r="DU14" s="48"/>
+      <c r="DV14" s="48"/>
+      <c r="DW14" s="48"/>
+      <c r="DX14" s="48"/>
+      <c r="DY14" s="48"/>
+      <c r="DZ14" s="48"/>
+      <c r="EA14" s="48"/>
+      <c r="EB14" s="48"/>
+      <c r="EC14" s="48"/>
+      <c r="ED14" s="48"/>
+      <c r="EE14" s="48"/>
+      <c r="EF14" s="48"/>
+      <c r="EG14" s="48"/>
+      <c r="EH14" s="48"/>
+      <c r="EI14" s="48"/>
+      <c r="EJ14" s="48"/>
+      <c r="EK14" s="48"/>
+      <c r="EL14" s="48"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="61">
+      <c r="A15" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="55">
         <f>_xlfn.CONCAT(A19,"_",W19,"-",X19,"_",F19,"-",G19,"-",H19,"-",I19,"_",Y19,"-",Z19,"_",M19,".pt")</f>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="56">
         <v>450</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="57">
         <v>0.2</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="56">
         <v>600</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="56">
         <v>2</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62" t="s">
+      <c r="J15" s="54"/>
+      <c r="K15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="62" t="s">
+      <c r="L15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="64">
+      <c r="M15" s="57">
         <v>0.001</v>
       </c>
-      <c r="N15" s="63">
+      <c r="N15" s="56">
         <v>200</v>
       </c>
-      <c r="O15" s="63">
+      <c r="O15" s="56">
         <v>10</v>
       </c>
-      <c r="P15" s="63">
+      <c r="P15" s="56">
         <v>30</v>
       </c>
-      <c r="Q15" s="56">
+      <c r="Q15" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S19, 2, LEN(S19) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R15" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="S15" s="62"/>
+      <c r="R15" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="54"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -4110,59 +4074,59 @@
       <c r="EL15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="61">
+      <c r="A16" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="55">
         <f>_xlfn.CONCAT(A20,"_",W20,"-",X20,"_",F20,"-",G20,"-",H20,"-",I20,"_",Y20,"-",Z20,"_",M20,".pt")</f>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="56">
         <v>450</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="57">
         <v>0.2</v>
       </c>
-      <c r="H16" s="65">
+      <c r="H16" s="56">
         <v>600</v>
       </c>
-      <c r="I16" s="65">
+      <c r="I16" s="56">
         <v>2</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60" t="s">
+      <c r="J16" s="54"/>
+      <c r="K16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="66">
+      <c r="M16" s="57">
         <v>0.001</v>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="56">
         <v>200</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="56">
         <v>10</v>
       </c>
-      <c r="P16" s="63">
+      <c r="P16" s="56">
         <v>43</v>
       </c>
-      <c r="Q16" s="56">
+      <c r="Q16" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S20, 2, LEN(S20) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R16" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" s="62"/>
+      <c r="R16" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="54"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -4296,59 +4260,59 @@
       <c r="EL16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="68">
+      <c r="A17" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="59">
         <f>_xlfn.CONCAT(A21,"_",W21,"-",X21,"_",F21,"-",G21,"-",H21,"-",I21,"_",Y21,"-",Z21,"_",M21,".pt")</f>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="60">
         <v>250</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="61">
         <v>0.2</v>
       </c>
-      <c r="H17" s="69">
+      <c r="H17" s="60">
         <v>256</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="60">
         <v>2</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67" t="s">
+      <c r="J17" s="58"/>
+      <c r="K17" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="L17" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="70">
+      <c r="M17" s="61">
         <v>0.001</v>
       </c>
-      <c r="N17" s="69">
+      <c r="N17" s="60">
         <v>200</v>
       </c>
-      <c r="O17" s="69">
+      <c r="O17" s="60">
         <v>10</v>
       </c>
-      <c r="P17" s="69">
+      <c r="P17" s="60">
         <v>52</v>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S21, 2, LEN(S21) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R17" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" s="67"/>
+      <c r="R17" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="S17" s="58"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
@@ -4482,55 +4446,55 @@
       <c r="EL17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="61">
+      <c r="A18" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="55">
         <f>_xlfn.CONCAT(A22,"_",W22,"-",X22,"_",F22,"-",G22,"-",H22,"-",I22,"_",Y22,"-",Z22,"_",M22,".pt")</f>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="62" t="s">
+      <c r="E18" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="63">
+      <c r="F18" s="56">
         <v>200</v>
       </c>
-      <c r="G18" s="64">
+      <c r="G18" s="57">
         <v>0.2</v>
       </c>
-      <c r="H18" s="63">
+      <c r="H18" s="56">
         <v>256</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="56">
         <v>1</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62" t="s">
+      <c r="J18" s="54"/>
+      <c r="K18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="62" t="s">
+      <c r="L18" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="64">
+      <c r="M18" s="57">
         <v>0.001</v>
       </c>
-      <c r="N18" s="63">
+      <c r="N18" s="56">
         <v>200</v>
       </c>
-      <c r="O18" s="63">
+      <c r="O18" s="56">
         <v>10</v>
       </c>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="56">
+      <c r="P18" s="62"/>
+      <c r="Q18" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S22, 2, LEN(S22) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -4664,55 +4628,55 @@
       <c r="EL18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="68">
+      <c r="A19" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="59">
         <f>_xlfn.CONCAT(A23,"_",W23,"-",X23,"_",F23,"-",G23,"-",H23,"-",I23,"_",Y23,"-",Z23,"_",M23,".pt")</f>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="67" t="s">
+      <c r="E19" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="60">
         <v>200</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="61">
         <v>0.2</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="60">
         <v>256</v>
       </c>
-      <c r="I19" s="69">
+      <c r="I19" s="60">
         <v>1</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="58"/>
+      <c r="K19" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="67" t="s">
+      <c r="L19" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="70">
+      <c r="M19" s="61">
         <v>0.001</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="60">
         <v>200</v>
       </c>
-      <c r="O19" s="69">
+      <c r="O19" s="60">
         <v>10</v>
       </c>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="56">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S23, 2, LEN(S23) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="58"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -4847,9 +4811,9 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="57">
+        <v>93</v>
+      </c>
+      <c r="B20" s="51">
         <f>_xlfn.CONCAT(A24,"_",W24,"-",X24,"_",F24,"-",G24,"-",H24,"-",I24,"_",Y24,"-",Z24,"_",M24,".pt")</f>
       </c>
       <c r="C20" s="1" t="s">
@@ -4858,47 +4822,47 @@
       <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="74">
+      <c r="F20" s="52">
         <v>200</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="53">
         <v>0.2</v>
       </c>
-      <c r="H20" s="74">
+      <c r="H20" s="52">
         <v>300</v>
       </c>
-      <c r="I20" s="74">
+      <c r="I20" s="52">
         <v>1</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73" t="s">
+      <c r="J20" s="64"/>
+      <c r="K20" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="73" t="s">
+      <c r="L20" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="75">
+      <c r="M20" s="53">
         <v>0.0001</v>
       </c>
-      <c r="N20" s="74">
+      <c r="N20" s="52">
         <v>300</v>
       </c>
-      <c r="O20" s="74">
+      <c r="O20" s="52">
         <v>30</v>
       </c>
-      <c r="P20" s="74">
+      <c r="P20" s="52">
         <v>237</v>
       </c>
-      <c r="Q20" s="56">
+      <c r="Q20" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S24, 2, LEN(S24) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R20" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="S20" s="73"/>
+      <c r="R20" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="64"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -5032,59 +4996,59 @@
       <c r="EL20" s="38"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="68">
+      <c r="A21" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="59">
         <f>_xlfn.CONCAT(A25,"_",W25,"-",X25,"_",F25,"-",G25,"-",H25,"-",I25,"_",Y25,"-",Z25,"_",M25,".pt")</f>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="69">
+      <c r="F21" s="60">
         <v>450</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="61">
         <v>0.2</v>
       </c>
-      <c r="H21" s="69">
+      <c r="H21" s="60">
         <v>600</v>
       </c>
-      <c r="I21" s="69">
+      <c r="I21" s="60">
         <v>3</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67" t="s">
+      <c r="J21" s="58"/>
+      <c r="K21" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="70">
+      <c r="M21" s="61">
         <v>0.001</v>
       </c>
-      <c r="N21" s="69">
+      <c r="N21" s="60">
         <v>200</v>
       </c>
-      <c r="O21" s="69">
+      <c r="O21" s="60">
         <v>10</v>
       </c>
-      <c r="P21" s="69">
+      <c r="P21" s="60">
         <v>16</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="50">
         <f>MIN(VALUE(_xlfn.TEXTSPLIT(MID(S25, 2, LEN(S25) - 2), ",", TRUE)))</f>
       </c>
-      <c r="R21" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="S21" s="67"/>
+      <c r="R21" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="S21" s="58"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -5218,36 +5182,36 @@
       <c r="EL21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="61">
+      <c r="A22" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="55">
         <f>_xlfn.CONCAT(A26,"_",W26,"-",X26,"_",F26,"-",G26,"-",H26,"-",I26,"_",Y26,"-",Z26,"_",M26,".pt")</f>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="76"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -5366,36 +5330,36 @@
       <c r="EL22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="68">
+      <c r="A23" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="59">
         <f>_xlfn.CONCAT(A27,"_",W27,"-",X27,"_",F27,"-",G27,"-",H27,"-",I27,"_",Y27,"-",Z27,"_",M27,".pt")</f>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="58"/>
+      <c r="S23" s="58"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
@@ -5514,36 +5478,36 @@
       <c r="EL23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="61">
+      <c r="A24" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="55">
         <f>_xlfn.CONCAT(A28,"_",W28,"-",X28,"_",F28,"-",G28,"-",H28,"-",I28,"_",Y28,"-",Z28,"_",M28,".pt")</f>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -5662,36 +5626,36 @@
       <c r="EL24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="68">
+      <c r="A25" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="59">
         <f>_xlfn.CONCAT(A29,"_",W29,"-",X29,"_",F29,"-",G29,"-",H29,"-",I29,"_",Y29,"-",Z29,"_",M29,".pt")</f>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="77"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -5810,36 +5774,36 @@
       <c r="EL25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="61">
+      <c r="A26" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="55">
         <f>_xlfn.CONCAT(A30,"_",W30,"-",X30,"_",F30,"-",G30,"-",H30,"-",I30,"_",Y30,"-",Z30,"_",M30,".pt")</f>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -5958,36 +5922,36 @@
       <c r="EL26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
-      <c r="A27" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="68">
+      <c r="A27" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="59">
         <f>_xlfn.CONCAT(A31,"_",W31,"-",X31,"_",F31,"-",G31,"-",H31,"-",I31,"_",Y31,"-",Z31,"_",M31,".pt")</f>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="58"/>
+      <c r="S27" s="58"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
@@ -6106,36 +6070,36 @@
       <c r="EL27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
-      <c r="A28" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="61">
+      <c r="A28" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="55">
         <f>_xlfn.CONCAT(A32,"_",W32,"-",X32,"_",F32,"-",G32,"-",H32,"-",I32,"_",Y32,"-",Z32,"_",M32,".pt")</f>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
+      <c r="W28" s="64"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
@@ -6254,36 +6218,36 @@
       <c r="EL28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
-      <c r="A29" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="68">
+      <c r="A29" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="59">
         <f>_xlfn.CONCAT(A33,"_",W33,"-",X33,"_",F33,"-",G33,"-",H33,"-",I33,"_",Y33,"-",Z33,"_",M33,".pt")</f>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="58"/>
+      <c r="S29" s="58"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="73"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -6402,36 +6366,36 @@
       <c r="EL29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
-      <c r="A30" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="61">
+      <c r="A30" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="55">
         <f>_xlfn.CONCAT(A34,"_",W34,"-",X34,"_",F34,"-",G34,"-",H34,"-",I34,"_",Y34,"-",Z34,"_",M34,".pt")</f>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -6549,37 +6513,37 @@
       <c r="EK30" s="1"/>
       <c r="EL30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="68">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="59">
         <f>_xlfn.CONCAT(A35,"_",W35,"-",X35,"_",F35,"-",G35,"-",H35,"-",I35,"_",Y35,"-",Z35,"_",M35,".pt")</f>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
+      <c r="W31" s="64"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -6703,18 +6667,18 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="78"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="67"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>

--- a/metrics visualization/model_tests.xlsx
+++ b/metrics visualization/model_tests.xlsx
@@ -263,7 +263,7 @@
     <t>MD18</t>
   </si>
   <si>
-    <t>[5.956544871, 4.919525402, 4.905601148, 4.846706499, 4.764659772, 4.634121691, 4.592479337, 4.467514221, 4.524223422, 4.609688526, 4.463065133, 4.479755148, 4.391313116, 4.318530941, 4.388769596, 4.117184019, 3.852035739, 3.560123098, 3.593171037, 3.604433737, 3.652438596, 3.743885933, 3.763549359, 3.648141104, 3.660352774, 3.407662545, 3.363630953, 3.120972268, 3.198839835, 3.107579164, 2.97344394, 2.779266184, 2.78895966, 2.671419793, 2.598793373, 2.306309293, 2.253363492, 2.198201781, 2.144975379, 2.222474611, 2.19520273, 2.039005891, 1.913818672, 1.892871151, 1.616961339, 1.583668025, 1.551923173, 1.336076198, 1.087646717, 0.913818057, 0.759302366, 0.759981074, 0.762821679, 0.759324598]</t>
+    <t>[5.956544871, 4.919525402, 4.905601148, 4.846706499, 4.764659772, 4.634121691, 4.592479337, 4.467514221, 4.524223422, 4.609688526, 4.463065133, 4.479755148, 4.391313116, 4.318530941, 4.388769596, 4.117184019, 3.852035739, 3.560123098, 3.593171037, 3.604433737, 3.652438596, 3.743885933, 3.763549359, 3.648141104, 3.660352774, 3.407662545, 3.363630953, 3.120972268, 3.198839835, 3.107579164, 2.97344394, 2.779266184, 2.78895966, 2.671419793, 2.598793373, 2.306309293, 2.253363492, 2.198201781, 2.144975379, 2.222474611, 2.19520273, 2.039005891, 1.913818672, 1.892871151, 1.616961339, 1.583668025, 1.551923173, 1.336076198, 1.087646717, 0.913818057, 1.359302366, 1.759981074, 1.6762821679, 1.459324598]</t>
   </si>
   <si>
     <t>MD5</t>

--- a/metrics visualization/model_tests.xlsx
+++ b/metrics visualization/model_tests.xlsx
@@ -191,7 +191,7 @@
     <t>I am a widower fellow back so as to make the colour of his hair the squat</t>
   </si>
   <si>
-    <t>[1.1426165103912354, 0.990385890007019, 1.5492451190948486, 0.9201304912567139, 1.24735426902771, 0.9689365029335022, 1.4299169778823853, 0.7501335144042969, 1.1470361948013306, 0.9286655187606812, 1.0815672874450684, 0.9331285357475281, 0.5659794807434082, 1.651070237159729, 1.3391618728637695, 1.182602047920227, 0.8596290349960327, 0.9550766944885254, 0.998741865158081, 0.5906916856765747, 1.1027051210403442, 1.6398214101791382]</t>
+    <t>[5.4784, 4.3364, 4.1702, 3.4020, 2.8157, 2.4640, 2.6634, 1.8027, 1.8038, 1.6509, 2.0273, 1.0841, 1.4509, 1.5990, 1.4506, 1.9652, 1.4170, 1.2989, 1.3209, 0.9687, 1.3484, 1.2076, 1.4099, 0.9793, 1.8807, 1.4276, 0.8806, 1.1357, 1.3131, 1.1984, 1.0138, 1.2683, 1.1023, 1.2922, 1.1170, 1.7148, 1.0201]</t>
   </si>
   <si>
     <t>MD3</t>
@@ -200,7 +200,7 @@
     <t>I am not still so short a theory as to me from a time in his and</t>
   </si>
   <si>
-    <t>[1.5493043661117554, 1.1090360879898071, 1.2411328554153442, 1.328185796737671, 1.079730749130249, 0.9008517265319824, 1.1193037033081055, 0.47130268812179565, 1.0849767923355103, 1.3783150911331177, 1.2003138065338135, 1.2796834707260132, 1.0297744274139404, 1.1729525327682495, 0.8043936491012573, 1.1052577495574951, 1.328485369682312]</t>
+    <t>[6.123669624328613, 4.831771373748779, 4.264039993286133, 3.392530918121338, 2.037153720855713, 2.785430431365967, 2.206280469894409, 2.089057445526123, 1.7780344486236572, 0.9723502397537231, 1.012768030166626, 1.9203325510025024, 1.4464738368988037, 0.8021913766860962, 1.0674508810043335, 0.5337871313095093, 0.8344894647598267, 1.2660828828811646, 0.8350681066513062, 0.8335259556770325, 0.8738487958908081, 0.6126617193222046, 0.7993009090423584, 0.5190911293029785, 0.8022850751876831, 0.9172399640083313, 0.7922387719154358, 0.49272099137306213, 0.6341560482978821, 0.39427825808525085, 0.6258032321929932, 0.35374560952186584, 0.8568776249885559, 0.743401288986206, 0.6706252098083496, 0.8031371831893921, 0.5033905506134033, 0.9021749496459961, 0.5931447744369507, 1.0572882890701294, 0.5101035833358765, 0.6064177751541138]</t>
   </si>
   <si>
     <t>MD4</t>
